--- a/data/trans_orig/P1420-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Provincia-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4468</v>
+        <v>4104</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002982385822030777</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01515872876912408</v>
+        <v>0.01392478925616193</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7243</v>
+        <v>7643</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007421946405885211</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02521571536598949</v>
+        <v>0.02660909139043626</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>3011</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7809</v>
+        <v>8770</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005173586446702717</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.001500051760279912</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01341779957483735</v>
+        <v>0.01506957281273782</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>293859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>290270</v>
+        <v>290634</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>294738</v>
@@ -822,7 +822,7 @@
         <v>0.9970176141779692</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9848412712308759</v>
+        <v>0.9860752107438383</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>285113</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>280002</v>
+        <v>279602</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>287245</v>
@@ -843,7 +843,7 @@
         <v>0.9925780535941148</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9747842846340082</v>
+        <v>0.9733909086095638</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -855,19 +855,19 @@
         <v>578972</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>574174</v>
+        <v>573213</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>581983</v>
+        <v>581110</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9948264135532973</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9865822004251622</v>
+        <v>0.9849304271872613</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>1</v>
+        <v>0.9984999482397201</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>3029</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8380</v>
+        <v>8120</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005991438415940308</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0</v>
+        <v>0.001856220535019061</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01657627616031674</v>
+        <v>0.01606153690348916</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -980,19 +980,19 @@
         <v>11463</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6089</v>
+        <v>5348</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21376</v>
+        <v>20648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02188576706106896</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0116246710818286</v>
+        <v>0.01021113349645799</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04081133577011654</v>
+        <v>0.03942146888293676</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -1001,19 +1001,19 @@
         <v>14492</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8070</v>
+        <v>7997</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25020</v>
+        <v>25393</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01407941636465566</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00784027112338071</v>
+        <v>0.007769368533074875</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02430757303922314</v>
+        <v>0.02467027686643266</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>502498</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>497147</v>
+        <v>497407</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>505527</v>
+        <v>504589</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9940085615840597</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9834237238396832</v>
+        <v>0.9839384630965109</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1</v>
+        <v>0.9981437794649809</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>470</v>
@@ -1051,19 +1051,19 @@
         <v>512302</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>502389</v>
+        <v>503117</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>517676</v>
+        <v>518417</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9781142329389311</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.959188664229883</v>
+        <v>0.9605785311170633</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9883753289181713</v>
+        <v>0.9897888665035418</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>939</v>
@@ -1072,19 +1072,19 @@
         <v>1014800</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1004272</v>
+        <v>1003899</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1021222</v>
+        <v>1021295</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9859205836353443</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9756924269607768</v>
+        <v>0.9753297231335673</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9921597288766193</v>
+        <v>0.9922306314669249</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4573</v>
+        <v>5792</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003173351822435846</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01411097166896666</v>
+        <v>0.01787464525993509</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4143</v>
+        <v>5173</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001546180308875931</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006228950520220916</v>
+        <v>0.007778058430039363</v>
       </c>
     </row>
     <row r="11">
@@ -1239,7 +1239,7 @@
         <v>323018</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>319473</v>
+        <v>318254</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>324046</v>
@@ -1248,7 +1248,7 @@
         <v>0.9968266481775642</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9858890283310309</v>
+        <v>0.9821253547400638</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>664038</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>660923</v>
+        <v>659893</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>665066</v>
@@ -1282,7 +1282,7 @@
         <v>0.9984538196911241</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9937710494797791</v>
+        <v>0.9922219415699607</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6764</v>
+        <v>7807</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005527948272989875</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01808553549967492</v>
+        <v>0.02087500273124587</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1398,19 +1398,19 @@
         <v>9687</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4850</v>
+        <v>4852</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17732</v>
+        <v>17453</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02490530759928817</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01246853326593759</v>
+        <v>0.0124755144425254</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04558802540860262</v>
+        <v>0.04487142963021851</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>11754</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5912</v>
+        <v>6700</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19133</v>
+        <v>20621</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0154067215242855</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007748532709235445</v>
+        <v>0.008781337942828992</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02507838451089341</v>
+        <v>0.02702886405058354</v>
       </c>
     </row>
     <row r="14">
@@ -1448,7 +1448,7 @@
         <v>371915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>367218</v>
+        <v>366175</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373982</v>
@@ -1457,7 +1457,7 @@
         <v>0.9944720517270101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9819144645003245</v>
+        <v>0.9791249972687531</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1469,19 +1469,19 @@
         <v>379264</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>371219</v>
+        <v>371498</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>384101</v>
+        <v>384099</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9750946924007118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9544119745913974</v>
+        <v>0.9551285703697813</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9875314667340623</v>
+        <v>0.9875244855574745</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>703</v>
@@ -1490,19 +1490,19 @@
         <v>751179</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>743800</v>
+        <v>742312</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>757021</v>
+        <v>756233</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9845932784757145</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9749216154891081</v>
+        <v>0.9729711359494165</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9922514672907646</v>
+        <v>0.991218662057171</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>7712</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3283</v>
+        <v>3210</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14479</v>
+        <v>14563</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03627160911762331</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01544022139744826</v>
+        <v>0.01509782516950985</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0680981673829302</v>
+        <v>0.06849178944520311</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1615,19 +1615,19 @@
         <v>12127</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6772</v>
+        <v>6856</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20551</v>
+        <v>20679</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05522497383742123</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03083943999818011</v>
+        <v>0.03122001636610224</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09358570940363359</v>
+        <v>0.09417159315392878</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1636,19 +1636,19 @@
         <v>19839</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12245</v>
+        <v>11768</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29799</v>
+        <v>29361</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04590118169271989</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02833231438705588</v>
+        <v>0.02722743838472225</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06894671915846076</v>
+        <v>0.06793323826439428</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>204906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198139</v>
+        <v>198055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209335</v>
+        <v>209408</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9637283908823767</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9319018326170697</v>
+        <v>0.9315082105547957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9845597786025517</v>
+        <v>0.9849021748304899</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>200</v>
@@ -1686,19 +1686,19 @@
         <v>207464</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>199040</v>
+        <v>198912</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212819</v>
+        <v>212735</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9447750261625788</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9064142905963664</v>
+        <v>0.9058284068460709</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9691605600018198</v>
+        <v>0.9687799836338977</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>389</v>
@@ -1707,19 +1707,19 @@
         <v>412370</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>402410</v>
+        <v>402848</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>419964</v>
+        <v>420441</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9540988183072802</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9310532808415392</v>
+        <v>0.9320667617356057</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9716676856129438</v>
+        <v>0.9727725616152777</v>
       </c>
     </row>
     <row r="18">
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5342</v>
+        <v>4594</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003318290878139566</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01949685819058854</v>
+        <v>0.0167692872785642</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1832,19 +1832,19 @@
         <v>3103</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8943</v>
+        <v>8423</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01115708765828639</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003562392060818814</v>
+        <v>0.003531841210650059</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03215867090425473</v>
+        <v>0.03028731511693095</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1853,19 +1853,19 @@
         <v>4012</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>999</v>
+        <v>1043</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9371</v>
+        <v>9280</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007266901379395146</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001810232261780915</v>
+        <v>0.001888629273493357</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01697441037801518</v>
+        <v>0.01680885177079909</v>
       </c>
     </row>
     <row r="20">
@@ -1882,7 +1882,7 @@
         <v>273072</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268639</v>
+        <v>269387</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -1891,7 +1891,7 @@
         <v>0.9966817091218604</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9805031418094124</v>
+        <v>0.9832307127214358</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1903,19 +1903,19 @@
         <v>274993</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>269153</v>
+        <v>269673</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277105</v>
+        <v>277114</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9888429123417136</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9678413290957443</v>
+        <v>0.9697126848830689</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9964376079391812</v>
+        <v>0.99646815878935</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>525</v>
@@ -1924,19 +1924,19 @@
         <v>548065</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>542706</v>
+        <v>542797</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>551078</v>
+        <v>551034</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9927330986206049</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9830255896219877</v>
+        <v>0.9831911482292007</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9981897677382191</v>
+        <v>0.9981113707265067</v>
       </c>
     </row>
     <row r="21">
@@ -2028,19 +2028,19 @@
         <v>5803</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2592</v>
+        <v>2036</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12866</v>
+        <v>12482</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008754792527865292</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003910567281496554</v>
+        <v>0.003071948749753484</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0194117427473451</v>
+        <v>0.01883283542929012</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2049,19 +2049,19 @@
         <v>9622</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4978</v>
+        <v>5136</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17449</v>
+        <v>18192</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01386817951530067</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007174277790584391</v>
+        <v>0.007402521584525354</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02514784570447719</v>
+        <v>0.02621919458850764</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -2070,19 +2070,19 @@
         <v>15425</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9005</v>
+        <v>9235</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24604</v>
+        <v>24584</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01137003025516891</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006637442187779533</v>
+        <v>0.006807386099701361</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01813606900725233</v>
+        <v>0.01812157015954073</v>
       </c>
     </row>
     <row r="23">
@@ -2099,19 +2099,19 @@
         <v>656985</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>649922</v>
+        <v>650306</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>660196</v>
+        <v>660752</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9912452074721347</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9805882572526549</v>
+        <v>0.9811671645707098</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9960894327185034</v>
+        <v>0.9969280512502465</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>627</v>
@@ -2120,19 +2120,19 @@
         <v>684231</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>676404</v>
+        <v>675661</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>688875</v>
+        <v>688717</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9861318204846994</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9748521542955229</v>
+        <v>0.9737808054114924</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9928257222094157</v>
+        <v>0.9925974784154747</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1239</v>
@@ -2141,19 +2141,19 @@
         <v>1341216</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1332037</v>
+        <v>1332057</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1347636</v>
+        <v>1347406</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9886299697448311</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9818639309927476</v>
+        <v>0.9818784298404591</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9933625578122204</v>
+        <v>0.9931926139002986</v>
       </c>
     </row>
     <row r="24">
@@ -2245,19 +2245,19 @@
         <v>5580</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1153</v>
+        <v>2099</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12254</v>
+        <v>12011</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007161768287251246</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001480079509379828</v>
+        <v>0.002693580079079726</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01572852847755989</v>
+        <v>0.01541634876677136</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2266,19 +2266,19 @@
         <v>7647</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3217</v>
+        <v>3243</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15638</v>
+        <v>16368</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009296059824658904</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003910479204697386</v>
+        <v>0.003942594190490006</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01901128936167359</v>
+        <v>0.01989880546387581</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2287,19 +2287,19 @@
         <v>13226</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6821</v>
+        <v>7508</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22386</v>
+        <v>22693</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00825788295485789</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004258966329645517</v>
+        <v>0.004687464119793659</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01397641846647248</v>
+        <v>0.01416825261217211</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>773518</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>766844</v>
+        <v>767087</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>777945</v>
+        <v>776999</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9928382317127488</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9842714715224402</v>
+        <v>0.9845836512332286</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9985199204906202</v>
+        <v>0.9973064199209203</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>749</v>
@@ -2337,19 +2337,19 @@
         <v>814931</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>806940</v>
+        <v>806210</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>819361</v>
+        <v>819335</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9907039401753411</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9809887106383257</v>
+        <v>0.9801011945361237</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9960895207953026</v>
+        <v>0.99605740580951</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1461</v>
@@ -2358,19 +2358,19 @@
         <v>1588450</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1579290</v>
+        <v>1578983</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1594855</v>
+        <v>1594168</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9917421170451421</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9860235815335275</v>
+        <v>0.985831747387828</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9957410336703545</v>
+        <v>0.9953125358802064</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>27007</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18067</v>
+        <v>18219</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38387</v>
+        <v>39654</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007881151849821333</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005272408801831964</v>
+        <v>0.005316746444766098</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01120210988504778</v>
+        <v>0.01157177406176131</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>53</v>
@@ -2483,19 +2483,19 @@
         <v>55781</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>42811</v>
+        <v>40799</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>72024</v>
+        <v>71203</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01569034349127566</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01204204885329174</v>
+        <v>0.01147612679015803</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02025943624726361</v>
+        <v>0.02002852258497674</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>79</v>
@@ -2504,19 +2504,19 @@
         <v>82788</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>64433</v>
+        <v>67123</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>101890</v>
+        <v>103143</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01185751004575172</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009228602456589909</v>
+        <v>0.009613821213322469</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01459355123988732</v>
+        <v>0.01477293309665497</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>3399772</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3388392</v>
+        <v>3387125</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3408712</v>
+        <v>3408560</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9921188481501787</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9887978901149522</v>
+        <v>0.9884282259382381</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9947275911981682</v>
+        <v>0.9946832535552338</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3243</v>
@@ -2554,19 +2554,19 @@
         <v>3499317</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3483074</v>
+        <v>3483895</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3512287</v>
+        <v>3514299</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9843096565087244</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9797405637527363</v>
+        <v>0.9799714774150232</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9879579511467083</v>
+        <v>0.9885238732098419</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6426</v>
@@ -2575,19 +2575,19 @@
         <v>6899089</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6879987</v>
+        <v>6878734</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6917444</v>
+        <v>6914754</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9881424899542482</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9854064487601126</v>
+        <v>0.9852270669033448</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.99077139754341</v>
+        <v>0.9903861787866775</v>
       </c>
     </row>
     <row r="30">
@@ -2923,19 +2923,19 @@
         <v>6723</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2796</v>
+        <v>2685</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14051</v>
+        <v>14824</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02288719078555785</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009518538777048969</v>
+        <v>0.009141784639061219</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04783087413860396</v>
+        <v>0.05046249475958061</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2944,19 +2944,19 @@
         <v>6294</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2069</v>
+        <v>2299</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12479</v>
+        <v>13576</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02180234731253875</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007166429706077795</v>
+        <v>0.007961547210044296</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04322600763487942</v>
+        <v>0.04702571327168342</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2965,19 +2965,19 @@
         <v>13018</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7307</v>
+        <v>7068</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23979</v>
+        <v>22714</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02234947933100285</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01254463333399965</v>
+        <v>0.01213490120758929</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04116774012534944</v>
+        <v>0.03899637568256876</v>
       </c>
     </row>
     <row r="5">
@@ -2994,19 +2994,19 @@
         <v>287038</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279710</v>
+        <v>278937</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290965</v>
+        <v>291076</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9771128092144421</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9521691258613967</v>
+        <v>0.9495375052404187</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9904814612229511</v>
+        <v>0.9908582153609385</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>271</v>
@@ -3015,19 +3015,19 @@
         <v>282409</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276224</v>
+        <v>275127</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286634</v>
+        <v>286404</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9781976526874613</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9567739923651206</v>
+        <v>0.9529742867283164</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9928335702939222</v>
+        <v>0.9920384527899556</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>531</v>
@@ -3036,19 +3036,19 @@
         <v>569446</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>558485</v>
+        <v>559750</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>575157</v>
+        <v>575396</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9776505206689972</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9588322598746504</v>
+        <v>0.9610036243174319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9874553666660003</v>
+        <v>0.9878650987924109</v>
       </c>
     </row>
     <row r="6">
@@ -3153,19 +3153,19 @@
         <v>3140</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8428</v>
+        <v>8497</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006002240651708552</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001877458070063991</v>
+        <v>0.001879462331030834</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01611229629056227</v>
+        <v>0.01624386342933874</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -3174,19 +3174,19 @@
         <v>3140</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8373</v>
+        <v>8676</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003061129422485583</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0009559427729787189</v>
+        <v>0.0009588204892991361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008163445611001048</v>
+        <v>0.008458871291244946</v>
       </c>
     </row>
     <row r="8">
@@ -3216,19 +3216,19 @@
         <v>519944</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>514656</v>
+        <v>514587</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>522102</v>
+        <v>522101</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9939977593482915</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9838877037094379</v>
+        <v>0.9837561365706612</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.998122541929936</v>
+        <v>0.9981205376689691</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>956</v>
@@ -3237,19 +3237,19 @@
         <v>1022519</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1017286</v>
+        <v>1016983</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1024679</v>
+        <v>1024676</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9969388705775144</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.991836554388999</v>
+        <v>0.9915411287087549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9990440572270213</v>
+        <v>0.9990411795107008</v>
       </c>
     </row>
     <row r="9">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6343</v>
+        <v>6396</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005659339385461331</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01991257012989415</v>
+        <v>0.02007757973089425</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5319</v>
+        <v>5194</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003121150542628398</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01581636842626298</v>
+        <v>0.01544503898426732</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -3383,19 +3383,19 @@
         <v>2853</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7905</v>
+        <v>7832</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004355858475951769</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001319635862304475</v>
+        <v>0.001329357839896673</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01207129814112666</v>
+        <v>0.01195922404548171</v>
       </c>
     </row>
     <row r="11">
@@ -3412,7 +3412,7 @@
         <v>316762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312222</v>
+        <v>312169</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -3421,7 +3421,7 @@
         <v>0.9943406606145386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9800874298701059</v>
+        <v>0.9799224202691057</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3433,7 +3433,7 @@
         <v>335259</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>330990</v>
+        <v>331115</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>336309</v>
@@ -3442,7 +3442,7 @@
         <v>0.9968788494573716</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.984183631573737</v>
+        <v>0.9845549610157327</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3454,19 +3454,19 @@
         <v>652021</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>646969</v>
+        <v>647042</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>654010</v>
+        <v>654003</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9956441415240482</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9879287018588728</v>
+        <v>0.9880407759545181</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9986803641376956</v>
+        <v>0.9986706421601033</v>
       </c>
     </row>
     <row r="12">
@@ -3558,19 +3558,19 @@
         <v>5543</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1939</v>
+        <v>2036</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13180</v>
+        <v>13140</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01498308508187644</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005239862910737341</v>
+        <v>0.005503207085738507</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03562478258631715</v>
+        <v>0.03551658641937087</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -3579,19 +3579,19 @@
         <v>10942</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4987</v>
+        <v>5189</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19215</v>
+        <v>21178</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02825416277108865</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01287742202920357</v>
+        <v>0.01339855300309386</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04961515430936152</v>
+        <v>0.05468342290206999</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -3600,19 +3600,19 @@
         <v>16486</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9219</v>
+        <v>9411</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27068</v>
+        <v>27331</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02177038539281389</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01217419031871511</v>
+        <v>0.01242823409550837</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03574472309371422</v>
+        <v>0.03609197428224241</v>
       </c>
     </row>
     <row r="14">
@@ -3629,19 +3629,19 @@
         <v>364421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>356784</v>
+        <v>356824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>368025</v>
+        <v>367928</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9850169149181236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9643752174136834</v>
+        <v>0.9644834135806312</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9947601370892626</v>
+        <v>0.9944967929142615</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>349</v>
@@ -3650,19 +3650,19 @@
         <v>376341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>368068</v>
+        <v>366105</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>382296</v>
+        <v>382094</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9717458372289114</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9503848456906385</v>
+        <v>0.94531657709793</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9871225779707965</v>
+        <v>0.9866014469969061</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>698</v>
@@ -3671,19 +3671,19 @@
         <v>740761</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>730179</v>
+        <v>729916</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>748028</v>
+        <v>747836</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9782296146071862</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9642552769062857</v>
+        <v>0.9639080257177568</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9878258096812849</v>
+        <v>0.9875717659044911</v>
       </c>
     </row>
     <row r="15">
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5282</v>
+        <v>5276</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004815305705770398</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02416284171501589</v>
+        <v>0.02413701545165774</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6259</v>
+        <v>6789</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002448914940092657</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01456124418789602</v>
+        <v>0.01579481623654895</v>
       </c>
     </row>
     <row r="17">
@@ -3851,7 +3851,7 @@
         <v>217534</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>213305</v>
+        <v>213311</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>218587</v>
@@ -3860,7 +3860,7 @@
         <v>0.9951846942942296</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9758371582849841</v>
+        <v>0.9758629845483423</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>428755</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>423549</v>
+        <v>423019</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>429808</v>
@@ -3881,7 +3881,7 @@
         <v>0.9975510850599073</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9854387558121039</v>
+        <v>0.9842051837634505</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -3976,19 +3976,19 @@
         <v>4942</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1884</v>
+        <v>1891</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11956</v>
+        <v>11281</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01878374847642681</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007159574601056115</v>
+        <v>0.007187235829981866</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0454400159944602</v>
+        <v>0.04287160961033264</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -3997,19 +3997,19 @@
         <v>3516</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8934</v>
+        <v>10593</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0128727356201699</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003602570579240207</v>
+        <v>0.00365481420142004</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03271315014385474</v>
+        <v>0.03878670978805594</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -4018,19 +4018,19 @@
         <v>8458</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3807</v>
+        <v>3823</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15966</v>
+        <v>16296</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01577317056146105</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007099305044999336</v>
+        <v>0.007129171205575558</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02977394294439131</v>
+        <v>0.03038898743492251</v>
       </c>
     </row>
     <row r="20">
@@ -4047,19 +4047,19 @@
         <v>258181</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251167</v>
+        <v>251842</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261239</v>
+        <v>261232</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9812162515235732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9545599840055397</v>
+        <v>0.9571283903896676</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9928404253989438</v>
+        <v>0.9928127641700182</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -4068,19 +4068,19 @@
         <v>269599</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>264181</v>
+        <v>262522</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272131</v>
+        <v>272117</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9871272643798301</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9672868498561458</v>
+        <v>0.9612132902119442</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9963974294207597</v>
+        <v>0.99634518579858</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>514</v>
@@ -4089,19 +4089,19 @@
         <v>527780</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>520272</v>
+        <v>519942</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>532431</v>
+        <v>532415</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9842268294385389</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9702260570556086</v>
+        <v>0.9696110125650775</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9929006949550007</v>
+        <v>0.9928708287944245</v>
       </c>
     </row>
     <row r="21">
@@ -4193,19 +4193,19 @@
         <v>9081</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4060</v>
+        <v>4678</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17709</v>
+        <v>19034</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01383197857652044</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006184399052272283</v>
+        <v>0.007125186582719696</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02697234481318875</v>
+        <v>0.02899017122417983</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -4214,19 +4214,19 @@
         <v>9013</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4427</v>
+        <v>4249</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17100</v>
+        <v>16839</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01303720503119711</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006404540469520126</v>
+        <v>0.006146287068355554</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0247363415012605</v>
+        <v>0.02435915630896192</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -4235,19 +4235,19 @@
         <v>18094</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10578</v>
+        <v>10369</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28312</v>
+        <v>28545</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01342435059910415</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007847801148882253</v>
+        <v>0.007693297172144007</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02100559367720799</v>
+        <v>0.02117795234479791</v>
       </c>
     </row>
     <row r="23">
@@ -4264,19 +4264,19 @@
         <v>647477</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>638849</v>
+        <v>637524</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>652498</v>
+        <v>651880</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9861680214234796</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9730276551868108</v>
+        <v>0.9710098287758184</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9938156009477277</v>
+        <v>0.9928748134172801</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>638</v>
@@ -4285,19 +4285,19 @@
         <v>682281</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>674194</v>
+        <v>674455</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>686867</v>
+        <v>687045</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9869627949688029</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9752636584987393</v>
+        <v>0.9756408436910377</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9935954595304797</v>
+        <v>0.9938537129316444</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1210</v>
@@ -4306,19 +4306,19 @@
         <v>1329758</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1319540</v>
+        <v>1319307</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1337274</v>
+        <v>1337483</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9865756494008958</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.978994406322792</v>
+        <v>0.978822047655202</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9921521988511177</v>
+        <v>0.9923067028278559</v>
       </c>
     </row>
     <row r="24">
@@ -4410,19 +4410,19 @@
         <v>5440</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14437</v>
+        <v>13924</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006987156550601227</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002232195952783972</v>
+        <v>0.002242330920952123</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01854291315519528</v>
+        <v>0.01788376103403476</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -4431,19 +4431,19 @@
         <v>10943</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5257</v>
+        <v>5470</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19310</v>
+        <v>20494</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0132452808864788</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00636326108236336</v>
+        <v>0.00662111843765964</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02337327271717879</v>
+        <v>0.0248060436454374</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -4452,19 +4452,19 @@
         <v>16383</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9394</v>
+        <v>8407</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27644</v>
+        <v>27075</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01020900158850887</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005853797993168388</v>
+        <v>0.005238878103239169</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01722634749085547</v>
+        <v>0.01687180613569616</v>
       </c>
     </row>
     <row r="26">
@@ -4481,19 +4481,19 @@
         <v>773143</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>764146</v>
+        <v>764659</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>776845</v>
+        <v>776837</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9930128434493988</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9814570868448046</v>
+        <v>0.9821162389659649</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.997767804047216</v>
+        <v>0.9977576690790479</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>746</v>
@@ -4502,19 +4502,19 @@
         <v>815224</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>806857</v>
+        <v>805673</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>820910</v>
+        <v>820697</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9867547191135212</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9766267272828212</v>
+        <v>0.9751939563545626</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9936367389176367</v>
+        <v>0.9933788815623403</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1492</v>
@@ -4523,19 +4523,19 @@
         <v>1588367</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1577106</v>
+        <v>1577675</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1595356</v>
+        <v>1596343</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9897909984114911</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9827736525091446</v>
+        <v>0.9831281938643037</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9941462020068316</v>
+        <v>0.9947611218967606</v>
       </c>
     </row>
     <row r="27">
@@ -4627,19 +4627,19 @@
         <v>33533</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22944</v>
+        <v>22577</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>48204</v>
+        <v>47563</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.00987919446310985</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006759518122997071</v>
+        <v>0.006651449929770137</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01420110652100385</v>
+        <v>0.01401252084795766</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>40</v>
@@ -4648,19 +4648,19 @@
         <v>45950</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33571</v>
+        <v>33834</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>63768</v>
+        <v>63182</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01296352619107343</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009471319394297481</v>
+        <v>0.009545369857558448</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01799057470135658</v>
+        <v>0.01782509733833459</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>70</v>
@@ -4669,19 +4669,19 @@
         <v>79483</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>62292</v>
+        <v>61890</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>99363</v>
+        <v>99156</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01145474035855694</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008977285655242695</v>
+        <v>0.008919238252881156</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01431968030949249</v>
+        <v>0.01428990893959011</v>
       </c>
     </row>
     <row r="29">
@@ -4698,19 +4698,19 @@
         <v>3360817</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3346146</v>
+        <v>3346787</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3371406</v>
+        <v>3371773</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9901208055368902</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9857988934789962</v>
+        <v>0.9859874791520422</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.993240481877003</v>
+        <v>0.9933485500702297</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3298</v>
@@ -4719,19 +4719,19 @@
         <v>3498592</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3480774</v>
+        <v>3481360</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3510971</v>
+        <v>3510708</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9870364738089266</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9820094252986434</v>
+        <v>0.9821749026616654</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9905286806057025</v>
+        <v>0.9904546301424415</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6499</v>
@@ -4740,19 +4740,19 @@
         <v>6859409</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6839529</v>
+        <v>6839736</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6876600</v>
+        <v>6877002</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.988545259641443</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9856803196905078</v>
+        <v>0.98571009106041</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9910227143447574</v>
+        <v>0.9910807617471189</v>
       </c>
     </row>
     <row r="30">
